--- a/Data/FCY Current Accounts.xlsx
+++ b/Data/FCY Current Accounts.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="50">
   <si>
     <t>TC</t>
   </si>
@@ -60,6 +60,108 @@
   </si>
   <si>
     <t>17707516</t>
+  </si>
+  <si>
+    <t>118518</t>
+  </si>
+  <si>
+    <t>1008784317</t>
+  </si>
+  <si>
+    <t>17898806</t>
+  </si>
+  <si>
+    <t>1008784332</t>
+  </si>
+  <si>
+    <t>17898812</t>
+  </si>
+  <si>
+    <t>1008784338</t>
+  </si>
+  <si>
+    <t>17898818</t>
+  </si>
+  <si>
+    <t>1008784339</t>
+  </si>
+  <si>
+    <t>17898819</t>
+  </si>
+  <si>
+    <t>1008784347</t>
+  </si>
+  <si>
+    <t>17898844</t>
+  </si>
+  <si>
+    <t>1008784352</t>
+  </si>
+  <si>
+    <t>17898850</t>
+  </si>
+  <si>
+    <t>1008784353</t>
+  </si>
+  <si>
+    <t>17898851</t>
+  </si>
+  <si>
+    <t>1008784362</t>
+  </si>
+  <si>
+    <t>17898860</t>
+  </si>
+  <si>
+    <t>1008784363</t>
+  </si>
+  <si>
+    <t>17898861</t>
+  </si>
+  <si>
+    <t>118500</t>
+  </si>
+  <si>
+    <t>1008784366</t>
+  </si>
+  <si>
+    <t>17898864</t>
+  </si>
+  <si>
+    <t>1008784371</t>
+  </si>
+  <si>
+    <t>17898870</t>
+  </si>
+  <si>
+    <t>1008784374</t>
+  </si>
+  <si>
+    <t>17898875</t>
+  </si>
+  <si>
+    <t>1008784380</t>
+  </si>
+  <si>
+    <t>17898882</t>
+  </si>
+  <si>
+    <t>1008784383</t>
+  </si>
+  <si>
+    <t>17898887</t>
+  </si>
+  <si>
+    <t>1008784389</t>
+  </si>
+  <si>
+    <t>17898898</t>
+  </si>
+  <si>
+    <t>1008784392</t>
+  </si>
+  <si>
+    <t>17898902</t>
   </si>
 </sst>
 </file>
@@ -104,7 +206,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -180,6 +282,230 @@
         <v>11</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
